--- a/brochures/excel/offshore/region-1/REACH.xlsx
+++ b/brochures/excel/offshore/region-1/REACH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\brochures\excel\offshore\seapae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\brochures\excel\offshore\region-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
+    <workbookView xWindow="2895" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="promotions" sheetId="1" r:id="rId1"/>
@@ -38,17 +38,19 @@
     <t>REACH Offshore Q4 Promotions Region 1.pdf</t>
   </si>
   <si>
-    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/seapae/reach/Reach_Tuition_Course_Fees_2021_v1.0.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/seapae/reach/Reach-Offshore-SEAPAE-Q4-Promotions-1OCT-31DEC21_VOL-1.1.pdf</t>
+    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/region-1/reach/Reach_Tuition_Course_Fees_2021_v1.0.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/region-1/reach/Reach-Offshore-SEAPAE-Q4-Promotions-1OCT-31DEC21_VOL-1.1.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +73,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,16 +99,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,7 +399,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -401,7 +414,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -409,13 +422,17 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/brochures/excel/offshore/region-1/REACH.xlsx
+++ b/brochures/excel/offshore/region-1/REACH.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
+    <workbookView xWindow="3840" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="promotions" sheetId="1" r:id="rId1"/>
+    <sheet name="brochures" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
